--- a/Static/SkyCombFlights.xlsx
+++ b/Static/SkyCombFlights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SkyComb\Output_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64D6BF-579C-4DC0-A24B-25869533A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAF575-B1D4-46AA-9AFD-66A53B63E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,15 @@
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Help" sheetId="2" r:id="rId2"/>
     <sheet name="#1" sheetId="3" r:id="rId3"/>
-    <sheet name="#2" sheetId="4" r:id="rId4"/>
-    <sheet name="#3" sheetId="5" r:id="rId5"/>
-    <sheet name="#4" sheetId="6" r:id="rId6"/>
-    <sheet name="#5" sheetId="7" r:id="rId7"/>
-    <sheet name="#6" sheetId="8" r:id="rId8"/>
+    <sheet name="#3" sheetId="5" r:id="rId4"/>
+    <sheet name="#5" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
   <si>
     <t>SkyComb Flights Summary</t>
   </si>
@@ -113,15 +110,6 @@
     <t>\DJI_0053.SRT</t>
   </si>
   <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>\DJI_0054.SRT</t>
-  </si>
-  <si>
     <t>#3</t>
   </si>
   <si>
@@ -152,12 +140,6 @@
     <t>\DJI_0093.SRT</t>
   </si>
   <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>\DJI_0094.SRT</t>
-  </si>
-  <si>
     <t>#5</t>
   </si>
   <si>
@@ -188,12 +170,6 @@
     <t>\DJI_0097.SRT</t>
   </si>
   <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>\DJI_0098.SRT</t>
-  </si>
-  <si>
     <t>SkyComb Flights Help</t>
   </si>
   <si>
@@ -299,9 +275,6 @@
     <t>Drone Path: 314 x 286m, 21 legs, flew 1979m</t>
   </si>
   <si>
-    <t>SkyComb Flight #2: DJI_0054.mp4</t>
-  </si>
-  <si>
     <t>SkyComb Flight #3: DJI_0094.mp4</t>
   </si>
   <si>
@@ -311,9 +284,6 @@
     <t>Drone Path: 222 x 286m, 16 legs, flew 1736m</t>
   </si>
   <si>
-    <t>SkyComb Flight #4: DJI_0094.mp4</t>
-  </si>
-  <si>
     <t>SkyComb Flight #5: DJI_0098.mp4</t>
   </si>
   <si>
@@ -321,9 +291,6 @@
   </si>
   <si>
     <t>Drone Path: 31 x 41m, 10 legs, flew 218m</t>
-  </si>
-  <si>
-    <t>SkyComb Flight #6: DJI_0098.mp4</t>
   </si>
 </sst>
 </file>
@@ -617,171 +584,6 @@
     <xdr:ext cx="5715000" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Altitude">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="DSM">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="DEM">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2181225" cy="3209925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Country">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="1428750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Altitude">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -935,172 +737,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="1428750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Altitude">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="DSM">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="DEM">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2181225" cy="3209925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Country">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1236,171 +873,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="1428750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Altitude">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="DSM">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="DEM">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2181225" cy="3209925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Country">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1846,69 +1318,69 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
@@ -1920,146 +1392,17 @@
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" location="'#1'!A1" display="#1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A8" location="'#2'!A1" display="#2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A9" location="'#3'!A1" display="#3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A10" location="'#4'!A1" display="#4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A11" location="'#5'!A1" display="#5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" location="'#6'!A1" display="#6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A8" location="'#3'!A1" display="#3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" location="'#5'!A1" display="#5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2078,12 +1421,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2091,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2099,31 +1442,31 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2131,15 +1474,15 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2147,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2155,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2183,36 +1526,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10">
         <v>159.19</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2223,14 +1566,14 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10">
         <v>155.52000000000001</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2241,14 +1584,14 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10">
         <v>3.66</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2259,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11">
         <v>140.80000000000001</v>
@@ -2273,7 +1616,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11">
         <v>102.5</v>
@@ -2287,7 +1630,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11">
         <v>132.5</v>
@@ -2295,13 +1638,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11">
         <v>102</v>
@@ -2309,7 +1652,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -2317,7 +1660,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -2325,18 +1668,18 @@
     </row>
     <row r="13" spans="1:8" ht="18.75">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10">
         <v>159.19</v>
@@ -2344,7 +1687,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10">
         <v>155.52000000000001</v>
@@ -2352,7 +1695,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10">
         <v>3.66</v>
@@ -2360,7 +1703,7 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11">
         <v>140.80000000000001</v>
@@ -2368,7 +1711,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D18" s="11">
         <v>102.5</v>
@@ -2376,7 +1719,7 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11">
         <v>132.5</v>
@@ -2384,7 +1727,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D20" s="11">
         <v>102</v>
@@ -2397,239 +1740,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="10">
-        <v>159.19</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="10">
-        <v>155.52000000000001</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3.67</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="11">
-        <v>140.80000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="11">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11">
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="10">
-        <v>159.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="10">
-        <v>155.52000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="10">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="11">
-        <v>140.80000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="11">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="11">
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="11">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -2649,36 +1759,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10">
         <v>72.17</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2686,17 +1796,17 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10">
         <v>28.25</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2704,17 +1814,17 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10">
         <v>43.91</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2722,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11">
         <v>45.8</v>
@@ -2736,10 +1846,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11">
         <v>9</v>
@@ -2750,10 +1860,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11">
         <v>25</v>
@@ -2761,13 +1871,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11">
         <v>5.8</v>
@@ -2775,15 +1885,15 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -2791,18 +1901,18 @@
     </row>
     <row r="13" spans="1:8" ht="18.75">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10">
         <v>72.17</v>
@@ -2810,7 +1920,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10">
         <v>28.25</v>
@@ -2818,7 +1928,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10">
         <v>43.91</v>
@@ -2826,7 +1936,7 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11">
         <v>45.8</v>
@@ -2834,7 +1944,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D18" s="11">
         <v>9</v>
@@ -2842,7 +1952,7 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11">
         <v>25</v>
@@ -2850,7 +1960,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D20" s="11">
         <v>5.8</v>
@@ -2862,240 +1972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="10">
-        <v>72.17</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="10">
-        <v>28.25</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="10">
-        <v>43.92</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="10">
-        <v>72.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="10">
-        <v>28.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="10">
-        <v>43.92</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="11">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -3115,36 +1992,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10">
         <v>70.81</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3152,17 +2029,17 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10">
         <v>49.23</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3170,17 +2047,17 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10">
         <v>21.58</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3188,10 +2065,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11">
         <v>60.2</v>
@@ -3202,10 +2079,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11">
         <v>45</v>
@@ -3216,10 +2093,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11">
         <v>46.8</v>
@@ -3227,13 +2104,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11">
         <v>43.2</v>
@@ -3241,15 +2118,15 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -3257,18 +2134,18 @@
     </row>
     <row r="13" spans="1:8" ht="18.75">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10">
         <v>70.81</v>
@@ -3276,7 +2153,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10">
         <v>49.23</v>
@@ -3284,7 +2161,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10">
         <v>21.58</v>
@@ -3292,7 +2169,7 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11">
         <v>60.2</v>
@@ -3300,7 +2177,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D18" s="11">
         <v>45</v>
@@ -3308,7 +2185,7 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11">
         <v>46.8</v>
@@ -3316,240 +2193,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="11">
-        <v>43.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="10">
-        <v>70.81</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="10">
-        <v>49.23</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="10">
-        <v>21.58</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="11">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="10">
-        <v>70.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="10">
-        <v>49.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="10">
-        <v>21.58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="11">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="11">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="11">
         <v>43.2</v>

--- a/Static/SkyCombFlights.xlsx
+++ b/Static/SkyCombFlights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SkyComb\Output_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAF575-B1D4-46AA-9AFD-66A53B63E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F0400-C855-4858-BC99-5E93CDB40841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,16 @@
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Help" sheetId="2" r:id="rId2"/>
     <sheet name="#1" sheetId="3" r:id="rId3"/>
-    <sheet name="#3" sheetId="5" r:id="rId4"/>
-    <sheet name="#5" sheetId="7" r:id="rId5"/>
+    <sheet name="#2" sheetId="4" r:id="rId4"/>
+    <sheet name="#3" sheetId="5" r:id="rId5"/>
+    <sheet name="#4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>SkyComb Flights Summary</t>
   </si>
@@ -32,9 +33,6 @@
     <t>Input directory:</t>
   </si>
   <si>
-    <t>D:\SkyComb\Input_Data\Philip_Quirke\New folder</t>
-  </si>
-  <si>
     <t>Flight #</t>
   </si>
   <si>
@@ -77,28 +75,28 @@
     <t>#1</t>
   </si>
   <si>
-    <t>2022-04-29 07:21</t>
-  </si>
-  <si>
-    <t>7:13</t>
-  </si>
-  <si>
-    <t>-36.889422</t>
-  </si>
-  <si>
-    <t>174.721625</t>
-  </si>
-  <si>
-    <t>1753411.5</t>
-  </si>
-  <si>
-    <t>5916010.5</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>308</t>
+    <t>2023-06-28 19:35</t>
+  </si>
+  <si>
+    <t>19:36</t>
+  </si>
+  <si>
+    <t>-37.997524</t>
+  </si>
+  <si>
+    <t>177.044743</t>
+  </si>
+  <si>
+    <t>1955202</t>
+  </si>
+  <si>
+    <t>5786734</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>605</t>
   </si>
   <si>
     <t>100</t>
@@ -107,67 +105,103 @@
     <t>Map</t>
   </si>
   <si>
-    <t>\DJI_0053.SRT</t>
+    <t>DJI_20230628193512_0001_T.mp4</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>2023-06-28 19:59</t>
+  </si>
+  <si>
+    <t>23:48</t>
+  </si>
+  <si>
+    <t>-37.999689</t>
+  </si>
+  <si>
+    <t>177.040394</t>
+  </si>
+  <si>
+    <t>1954809</t>
+  </si>
+  <si>
+    <t>5786510</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>DJI_20230628195928_0001_T.mp4</t>
   </si>
   <si>
     <t>#3</t>
   </si>
   <si>
-    <t>2022-09-08 06:26</t>
-  </si>
-  <si>
-    <t>8:27</t>
-  </si>
-  <si>
-    <t>-36.884396</t>
-  </si>
-  <si>
-    <t>174.697941</t>
-  </si>
-  <si>
-    <t>1751310.8</t>
-  </si>
-  <si>
-    <t>5916606</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>\DJI_0093.SRT</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>2022-12-15 05:52</t>
-  </si>
-  <si>
-    <t>3:51</t>
-  </si>
-  <si>
-    <t>-36.891786</t>
-  </si>
-  <si>
-    <t>174.703364</t>
-  </si>
-  <si>
-    <t>1751779.5</t>
-  </si>
-  <si>
-    <t>5915777.5</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>\DJI_0097.SRT</t>
+    <t>2023-06-28 22:19</t>
+  </si>
+  <si>
+    <t>20:51</t>
+  </si>
+  <si>
+    <t>-38.005818</t>
+  </si>
+  <si>
+    <t>177.032105</t>
+  </si>
+  <si>
+    <t>1954051</t>
+  </si>
+  <si>
+    <t>5785862</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>DJI_20230628221914_0001_T.mp4</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>2023-06-28 22:42</t>
+  </si>
+  <si>
+    <t>23:33</t>
+  </si>
+  <si>
+    <t>-38.004711</t>
+  </si>
+  <si>
+    <t>177.027496</t>
+  </si>
+  <si>
+    <t>1953652</t>
+  </si>
+  <si>
+    <t>5786002</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>DJI_20230628224237_0001_T.mp4</t>
+  </si>
+  <si>
+    <t>Flight Locations</t>
+  </si>
+  <si>
+    <t>Flight Paths (1953103,5785439 to 1953103,5785439)</t>
   </si>
   <si>
     <t>SkyComb Flights Help</t>
@@ -215,16 +249,13 @@
     <t>The sub-folder and file name of the flight log (SRT) and video (MP4) files generated during the drone flight.</t>
   </si>
   <si>
-    <t>SkyComb Flight #1: DJI_0054.mp4</t>
+    <t>SkyComb Flight #1: DJI_202306281927_004\DJI_20230628193512_0001_T.mp4</t>
   </si>
   <si>
     <t>Flight Settings</t>
   </si>
   <si>
-    <t>Elevations: Ground 102-133m, Surface 103-141m, Drone 156-159m</t>
-  </si>
-  <si>
-    <t>Legend</t>
+    <t>Elevations: Ground 7-128m, Surface 7-128m, Drone 70-216m</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -233,21 +264,12 @@
     <t>Max Drone Altitude M</t>
   </si>
   <si>
-    <t>Drone</t>
-  </si>
-  <si>
     <t>Min Drone Altitude M</t>
   </si>
   <si>
-    <t>DSM aka Tree-Top</t>
-  </si>
-  <si>
     <t>Range Drone Altitude M</t>
   </si>
   <si>
-    <t>DEM aka Land</t>
-  </si>
-  <si>
     <t>Max Surface M</t>
   </si>
   <si>
@@ -257,48 +279,61 @@
     <t>Max Ground M</t>
   </si>
   <si>
-    <t>East M</t>
-  </si>
-  <si>
     <t>Min Ground M</t>
   </si>
   <si>
-    <t>North M</t>
-  </si>
-  <si>
-    <t>DemPerc</t>
-  </si>
-  <si>
-    <t>DsmPerc</t>
-  </si>
-  <si>
-    <t>Drone Path: 314 x 286m, 21 legs, flew 1979m</t>
-  </si>
-  <si>
-    <t>SkyComb Flight #3: DJI_0094.mp4</t>
-  </si>
-  <si>
-    <t>Elevations: Ground 6-25m, Surface 9-46m, Drone 28-72m</t>
-  </si>
-  <si>
-    <t>Drone Path: 222 x 286m, 16 legs, flew 1736m</t>
-  </si>
-  <si>
-    <t>SkyComb Flight #5: DJI_0098.mp4</t>
-  </si>
-  <si>
-    <t>Elevations: Ground 43-47m, Surface 45-60m, Drone 49-71m</t>
-  </si>
-  <si>
-    <t>Drone Path: 31 x 41m, 10 legs, flew 218m</t>
+    <t>DEM %</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=-37.994666,177.048658&amp;ll=-37.994666,177.048658&amp;z=10</t>
+  </si>
+  <si>
+    <t>Earth (aka ground, DEM) elevations</t>
+  </si>
+  <si>
+    <t>Surface (aka tree-top, DSM) elevations</t>
+  </si>
+  <si>
+    <t>Swathe seen</t>
+  </si>
+  <si>
+    <t>SkyComb Flight #2: DJI_202306281956_005\DJI_20230628195928_0001_T.mp4</t>
+  </si>
+  <si>
+    <t>Elevations: Ground 14-154m, Surface 14-154m, Drone 88-230m</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=-37.996609,177.046419&amp;ll=-37.996609,177.046419&amp;z=10</t>
+  </si>
+  <si>
+    <t>SkyComb Flight #3: DJI_202306282217_009\DJI_20230628221914_0001_T.mp4</t>
+  </si>
+  <si>
+    <t>Elevations: Ground 121-195m, Surface 121-197m, Drone 158-326m</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=-38.001945,177.034034&amp;ll=-38.001945,177.034034&amp;z=10</t>
+  </si>
+  <si>
+    <t>SkyComb Flight #4: DJI_202306282241_010\DJI_20230628224237_0001_T.mp4</t>
+  </si>
+  <si>
+    <t>Elevations: Ground 45-239m, Surface 48-253m, Drone 139-380m</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=-38.000484,177.033505&amp;ll=-38.000484,177.033505&amp;z=10</t>
+  </si>
+  <si>
+    <t>F:\SkyComb\Input_Data\Sample\DCIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -364,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,8 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -411,12 +447,97 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Country">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8334375" cy="8334375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="DSM">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="1428750"/>
+    <xdr:ext cx="8096250" cy="2381250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Altitude">
@@ -451,9 +572,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5715000"/>
@@ -491,9 +612,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5715000"/>
@@ -531,15 +652,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Country">
+        <xdr:cNvPr id="5" name="SWATHE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
@@ -569,25 +690,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Country">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="1428750"/>
+    <xdr:ext cx="8096250" cy="2381250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Altitude">
+        <xdr:cNvPr id="7" name="Altitude">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -616,18 +777,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="DSM">
+        <xdr:cNvPr id="8" name="DSM">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -656,18 +817,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="DEM">
+        <xdr:cNvPr id="9" name="DEM">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,18 +857,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Country">
+        <xdr:cNvPr id="10" name="SWATHE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,25 +895,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Country">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="1428750"/>
+    <xdr:ext cx="8096250" cy="2381250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Altitude">
+        <xdr:cNvPr id="12" name="Altitude">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,18 +982,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="DSM">
+        <xdr:cNvPr id="13" name="DSM">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,18 +1022,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="DEM">
+        <xdr:cNvPr id="14" name="DEM">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,18 +1062,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Country">
+        <xdr:cNvPr id="15" name="SWATHE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -882,6 +1083,251 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Country">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8096250" cy="2381250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Altitude">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="DSM">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="DEM">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="SWATHE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2181225" cy="3209925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Country">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1199,18 +1645,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="9" width="15" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="9" width="12" customWidth="1"/>
     <col min="10" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="60" customWidth="1"/>
@@ -1228,183 +1675,235 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" t="s">
         <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
         <v>46</v>
       </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" location="'#1'!A1" display="#1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A8" location="'#3'!A1" display="#3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A9" location="'#5'!A1" display="#5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A8" location="'#2'!A1" display="#2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" location="'#3'!A1" display="#3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" location="'#4'!A1" display="#4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1421,84 +1920,84 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1508,699 +2007,764 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11">
+        <v>216.17</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="10">
-        <v>159.19</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10">
-        <v>155.52000000000001</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B6" s="10">
+        <v>-37.997523999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11">
+        <v>145.81</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3.66</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="B7" s="10">
+        <v>177.04474300000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12">
+        <v>127.5</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11">
-        <v>140.80000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1955202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="11">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>5786734</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="12">
+        <v>127.5</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11">
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10">
+        <v>716</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="10">
-        <v>159.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="10">
-        <v>155.52000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="10">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11">
-        <v>140.80000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="11">
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11">
-        <v>102</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11">
+        <v>229.5</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11">
+        <v>87.99</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-37.999688999999996</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11">
+        <v>141.51</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>177.04039399999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1954809</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12">
+        <v>13.8</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5786510</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="E9" s="12">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1088</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="10">
-        <v>72.17</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10">
-        <v>28.25</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="10">
-        <v>43.91</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="11">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="12">
+        <v>13.8</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="10">
-        <v>72.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="10">
-        <v>28.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="10">
-        <v>43.91</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5.8</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11">
+        <v>325.74</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11">
+        <v>157.83000000000001</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-38.005817999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11">
+        <v>167.91</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>177.032105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12">
+        <v>196.8</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1954051</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12">
+        <v>120.5</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5785862</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="12">
+        <v>195</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>376</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="12">
+        <v>120.5</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75">
+      <c r="A18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="10">
-        <v>70.81</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11">
+        <v>379.62</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11">
+        <v>139.21</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10">
-        <v>49.23</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B6" s="10">
+        <v>-38.004711</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11">
+        <v>240.4</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="10">
-        <v>21.58</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="B7" s="10">
+        <v>177.02749600000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12">
+        <v>253</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1953652</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>5786002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="12">
+        <v>239</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="11">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10">
+        <v>1096</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45.2</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="10">
-        <v>70.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="10">
-        <v>49.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="10">
-        <v>21.58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="11">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11">
-        <v>43.2</v>
+      <c r="Q18" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>